--- a/Primer.xlsx
+++ b/Primer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krebs\Desktop\LP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DD0EB1-0E44-4C55-94A4-3E7899FE2286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCC5A61-A1BC-4B46-8389-BE6CE076C787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11856" yWindow="-48" windowWidth="11496" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11544" yWindow="0" windowWidth="11496" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -351,27 +351,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A4"/>
+  <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
